--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.151350666666667</v>
+        <v>1.921622333333333</v>
       </c>
       <c r="N2">
-        <v>3.454052</v>
+        <v>5.764867</v>
       </c>
       <c r="O2">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="P2">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="Q2">
-        <v>0.083101037068</v>
+        <v>0.138696935153</v>
       </c>
       <c r="R2">
-        <v>0.747909333612</v>
+        <v>1.248272416377</v>
       </c>
       <c r="S2">
-        <v>0.08771067958196711</v>
+        <v>0.1392241219313625</v>
       </c>
       <c r="T2">
-        <v>0.08771067958196713</v>
+        <v>0.1392241219313625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>31.103307</v>
       </c>
       <c r="O3">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="P3">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="Q3">
         <v>0.7483144631130001</v>
@@ -638,10 +638,10 @@
         <v>6.734830168017</v>
       </c>
       <c r="S3">
-        <v>0.7898237184085691</v>
+        <v>0.7511588049189343</v>
       </c>
       <c r="T3">
-        <v>0.7898237184085692</v>
+        <v>0.7511588049189343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1322436666666667</v>
+        <v>0.1441973333333333</v>
       </c>
       <c r="N4">
-        <v>0.396731</v>
+        <v>0.432592</v>
       </c>
       <c r="O4">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="P4">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="Q4">
-        <v>0.009544951129000001</v>
+        <v>0.010407730928</v>
       </c>
       <c r="R4">
-        <v>0.085904560161</v>
+        <v>0.093669578352</v>
       </c>
       <c r="S4">
-        <v>0.01007441278279348</v>
+        <v>0.01044729069283506</v>
       </c>
       <c r="T4">
-        <v>0.01007441278279349</v>
+        <v>0.01044729069283506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.100777333333333</v>
+        <v>1.182384</v>
       </c>
       <c r="N5">
-        <v>3.302332</v>
+        <v>3.547152</v>
       </c>
       <c r="O5">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="P5">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="Q5">
-        <v>0.079450805588</v>
+        <v>0.08534092996800001</v>
       </c>
       <c r="R5">
-        <v>0.715057250292</v>
+        <v>0.768068369712</v>
       </c>
       <c r="S5">
-        <v>0.08385796853240096</v>
+        <v>0.08566531067535062</v>
       </c>
       <c r="T5">
-        <v>0.08385796853240098</v>
+        <v>0.08566531067535062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3745466666666666</v>
+        <v>0.1863936666666667</v>
       </c>
       <c r="N6">
-        <v>1.12364</v>
+        <v>0.559181</v>
       </c>
       <c r="O6">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="P6">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="Q6">
-        <v>0.02703365476</v>
+        <v>0.013453335679</v>
       </c>
       <c r="R6">
-        <v>0.24330289284</v>
+        <v>0.121080021111</v>
       </c>
       <c r="S6">
-        <v>0.02853322069426908</v>
+        <v>0.01350447178151746</v>
       </c>
       <c r="T6">
-        <v>0.02853322069426909</v>
+        <v>0.01350447178151746</v>
       </c>
     </row>
   </sheetData>
